--- a/Bug report/TVS_AL_ReportsF.xlsx
+++ b/Bug report/TVS_AL_ReportsF.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\Documents\Bug Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74442CF-713F-4C3C-B6C8-FDB20062FBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C30A1-B93C-4A65-A39C-6736251625C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{89702CBF-FD6F-4E9A-963A-3D4F62A3DC18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{89702CBF-FD6F-4E9A-963A-3D4F62A3DC18}"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="6" r:id="rId1"/>
-    <sheet name="Open Bugs" sheetId="5" r:id="rId2"/>
+    <sheet name="Closed Bugs" sheetId="5" r:id="rId2"/>
     <sheet name="Reports" sheetId="1" r:id="rId3"/>
     <sheet name="Test Cases-Part-Dropdowns" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="136">
   <si>
     <t>Bug Tracker</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t xml:space="preserve">1)Click on the Report available under menu item.                                         2)Click on EW Claims Dump.                                    3)Select the valid start date and end date (Present date)                       4)Click on Generate Now button.                              5)Open the claims dump report and check if the same dropdown and its value is coming or not.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New </t>
   </si>
   <si>
     <t xml:space="preserve">Module </t>
@@ -1449,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0F053-2A67-41A1-885E-FFE2CEB8C788}">
   <dimension ref="H10:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,10 +1465,10 @@
     </row>
     <row r="11" spans="8:11" ht="15.75">
       <c r="H11" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="66" t="s">
         <v>130</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>131</v>
       </c>
       <c r="J11" s="67" t="s">
         <v>113</v>
@@ -1482,16 +1479,16 @@
     </row>
     <row r="12" spans="8:11">
       <c r="H12" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" s="70">
         <v>2</v>
       </c>
       <c r="J12" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="8:11">
@@ -1526,7 +1523,7 @@
     </row>
     <row r="18" spans="8:11">
       <c r="H18" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" s="74">
         <f>SUM(I12:I17)</f>
@@ -1534,10 +1531,10 @@
       </c>
       <c r="J18" s="75">
         <f>SUM(J12:J17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1552,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79BB786-FD15-4A00-8C93-29DAA0303185}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1608,7 +1605,7 @@
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
       <c r="H2" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" s="81"/>
       <c r="J2" s="51"/>
@@ -1632,7 +1629,7 @@
       <c r="F3" s="53"/>
       <c r="G3" s="53"/>
       <c r="H3" s="81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" s="81"/>
       <c r="J3" s="53"/>
@@ -1720,13 +1717,17 @@
         <v>18</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="50"/>
+        <v>83</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="M5" s="50"/>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
-      <c r="P5" s="57"/>
+      <c r="P5" s="57">
+        <v>43873</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="57"/>
@@ -34803,8 +34804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE4731A-7A49-442F-A290-6D053590D0F6}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34870,7 +34871,7 @@
         <v>90</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
